--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/35_Gümüşhane_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/35_Gümüşhane_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6B43D6-3252-4BF0-B3AF-2B79E5446FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{791B50D7-98FD-4FD1-B528-69BDF33950CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="672" xr2:uid="{C7DAF530-DFF5-43CB-8787-0E274E2911D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{35AE14CA-F5A5-43B0-8365-7193AB75D7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{386B81F9-82D9-486A-920C-FF4F24877F78}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{102E73C5-183D-4F7D-B4D1-8C26CB26DA91}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{159EAFC8-DB32-4D40-A9E9-7E6592CDFE1A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{31E6CD6C-2409-4F1A-86A0-DEF5DA7F97EA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9D012112-5CC9-447C-AE0C-0767D4B7C0CE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3A436E9C-5FD8-41C8-B503-08C4874A18F8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F109A0AB-42ED-4684-933B-08A36C397EFE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{41576134-C489-4031-BF7A-8F40917DBA24}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{20B5963B-3263-468D-9F15-C313A0345B8B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3F78BC57-D38E-430B-A92A-29B4F769B505}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{61AAD260-C0EA-4554-8C5E-EFC00CDDE715}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{99CF341D-C7BC-4A20-A99D-6A76E5F9D35C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{38146A6B-DED1-4462-AE9F-23DF9F3A87D9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F0620331-F472-4614-9998-8778430C8D23}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7EB30-0915-404A-87CE-352B13837CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A046A-806B-43FA-BFED-7C6C30602E67}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2610,17 +2610,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA455922-87E0-4D77-9A10-A82287742F7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07FA1D32-AA58-48FA-A07F-54310CC7D690}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43D68FE5-669D-474B-864C-76E2C0E35EFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24EB8F07-91E1-4E80-9191-028150FC0FA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5B32334-DB2D-44CA-8C45-0E140C1026DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83F8BE27-04B7-4A98-8935-D7DF71C3325B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B71CE6A-F973-4B7B-9418-8DA141E9533F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9CC6FEB-9EE6-40BE-839D-3BF9A29D5546}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4BCB46B9-B9B2-4EB9-922B-CA1CF1FBA85E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF1D80FF-3911-4197-AB8A-0DE931D3ABA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75E22A36-3742-43F7-8B77-C84DA5824D53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD07AD9D-8557-4162-A9C1-3BEBE1772440}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7106A3D4-86DB-44EF-AE6D-F0317AE00D8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19291D42-26C7-4CF1-9BA9-83A3BDEC2B14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D72F0D7-8562-40C3-A2D6-927A1B46BD49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD296FE6-4BF0-4932-88E7-E37D28C826B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7CC7808-911C-4F1A-B490-BE7C62CA9140}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{235DC145-A25B-4777-B67A-2F2DAD969E14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{760CD764-22F8-47A3-A936-CEC91E21D2ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{53B3F7DC-7017-4F55-B384-C771FCD9D354}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{105E0669-7889-46E6-BAD4-FCDD98F56542}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{643BDFC2-7EB1-478C-9EB9-DA864D3CC051}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9A9D2A-8F39-49FC-B4E4-38D25CC2EA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18C4615-4362-4684-B852-89678AA5E79A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3887,17 +3887,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7CE36EC-0F88-4647-8AA6-599E6D33F89B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61B73678-15B4-4200-BFEA-242C3C46E569}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F7846C4-102D-4C9D-BD8C-9B6EC95EC8AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3449248-D1F2-4019-97B6-99153BEF1426}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BECE40B2-1CF6-464C-9A41-96F8DEA6C7B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1490600-3B91-47B3-885D-D7E351A25AD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{694FA9BA-6651-41A0-B479-C8AB5D232A97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC8E33B5-B4E6-47CD-93DA-F8C2B96038E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3C5C1082-ECAB-483A-B9BB-76FA043861FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EFEECCB5-37FB-4B77-A57C-04DE74F840C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91EA28FA-448C-4402-992C-ED8C53457CCD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E404038-EE85-4D7A-9CB2-A1607196C578}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68CA554B-ECC6-47DB-A22C-350F851A86DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF018142-68D4-4220-A684-3A4A2911FEB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA84A2F1-7262-459C-A1E8-722ED8B3A041}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A58CA57B-5EC0-4136-8F1F-0DCBA6DB1B33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD6B101D-D8F8-465C-AF5E-FB226946BAC5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C0034EC-3976-432A-AE20-F3ACFACBB3D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27163329-D722-4BE5-9547-3C6F085069A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A28C721F-F0E2-47B4-811B-4738E9B3126F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6470E99D-7B9E-4D3A-91D2-911E2D117B08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{916435D6-E691-45FD-8C84-7B577C933312}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3910,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B47811-3B10-48C0-9B41-921CDE6049FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2911592-98E6-4DB2-87B4-26D4A19F9665}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5132,17 +5132,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C8D4FE6-5B0F-44A0-AD4A-CBD1CBD12DA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A41F6413-09FF-4CFA-A92D-2D48848CB197}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C28D8B6E-127B-470C-AE7F-65575247BD8C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADAA8C04-76E6-4687-BF64-FA0AB5ED8183}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C45CD5B-1A38-4055-8F3F-D43FF5460F2B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7334234-B034-461B-832F-DB7F8CF00B48}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{193BB42E-0586-408C-A9A1-E1BDC4F34FC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F708CB0B-9C82-41FE-8250-476456E29816}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{801548B6-5A13-4573-A65F-6E054B9F1F9E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{60E5EB61-09EF-448F-9175-E99209557545}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A91183C-CB33-4472-BED6-D25091CD04AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1833692C-ABBB-4EE5-B8BF-BA33E695779C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{549AAB1A-BA94-44E6-B988-BDD9D62A2116}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C374D959-881A-460B-BD0D-29D9CFA0E258}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93D7834A-DDE6-42FA-8167-F2BE180E486E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F4A76ABB-3039-4327-913E-E1F2EBD64481}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84699BB9-6C40-44E7-8A4E-09A648BC381B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3918A637-0B59-4F0E-9FC8-1B2E5A2CE170}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17DE0BA6-D4A1-44A4-824D-D0301C4D9D35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3A16711B-B2F7-495E-9B03-45B89C97BF90}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8F7FBAD0-08F0-44B6-8C33-421337A78486}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D68C9FF-1F74-4AC8-8384-37EC1AAC48AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5155,7 +5155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B312F4C-6DFF-4AA7-8D59-F2D62192B4B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E556AF-D959-4758-B18B-BDCF34F5D0A9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6369,17 +6369,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C03B3C6-E101-4E61-ADB0-5F66D9A219CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD373F3C-A678-49B7-938E-5006AB84800D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BECB45E-BBEE-40F2-B1C1-3AAE6DD43F85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39D90033-0AAD-46AE-9F3B-0194B6664811}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB7CD600-90AA-4664-8A7C-8A41AD560E14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AE8D2D3-B786-47D4-8A3A-DCFF82B0561A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{616BB037-42B2-4CAC-8B64-F9FDFFAD77D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C441774D-503C-4938-9B0A-E87DC4A9E9FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A90E35C4-5672-4A66-B22A-A87F0E71B679}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{02F752D1-18C0-4681-BCBE-C5CBC9B502F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC6E9953-F7F5-4CC5-BBD9-E7E4937B2162}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8949E4D4-7AFA-4226-BC5F-6BA5F6528CB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F957795-A8D6-4E69-AFF9-00EE083655FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1292129-FD3C-4BB3-9DA5-F2489D6B0C5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{109C5056-28EC-4899-BB39-F075BAFDCC44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E762C24C-F89A-4FD1-B691-4C5F1E9866FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E96D474-B4A0-4728-879A-82E5E37FE425}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7C89961-C951-4A02-BC68-226BCE3B1999}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98E2A575-F50D-42B1-B951-FDE4A4EB83DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EC2EE009-6921-4518-94FB-4A344C5CAACB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{129100E4-9761-4A4A-BE14-56B316450D70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4A8AF68-3DDB-4CF7-B3B5-C274DB9BFEF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3059142-DB58-4CE0-8380-5A97C71F6D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168B2E79-3281-446A-8EE3-272B7504A053}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7649,17 +7649,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1C63368-5EE7-4BFA-BF18-A8BC018C294F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D0BF21F-D8F0-4417-A2E8-D76DF677C106}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3EA622C-9811-4E89-A9D5-3F001B051C4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AA4F818-F40A-4B94-9210-E677D5DA51D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{989070E4-A550-4C19-9643-6DCF9A00396A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{209FAEC3-80BF-4DCF-BF14-6D53356B240F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00C48B74-C395-4075-B551-D043F5470B79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FA2AB86-ECAC-4F3B-94DD-973F1506DC0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AC6D4E1F-F6B0-4505-8204-52962003B9EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8F5440F1-2496-49A0-9562-F6AAD394DD5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50351CBC-0703-47E5-898B-AA5EFDFB0638}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BECBF586-F2DE-4462-90E2-1C209F1D96A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2DDB9AC-9954-42DC-B0CF-9D7EFF042AA5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1E79519-99A8-4633-8CA0-87A0FB758F42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE0EBEC0-CA18-4067-BC6E-9A1942B0AA7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D973543C-303B-431B-BD4C-6A26A75C91A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B501C660-F363-48FE-BA20-B27D6C9A8A25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40E3991B-4AA0-4D01-82E1-066462641FD3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1093188D-3A8D-4082-84D1-2CCB6FFCEE5E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9ED1BF85-D392-4ECC-A769-28D9068A08F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4FD137EB-BF06-45B6-8144-4370F5D81B04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F9C43F3-FA99-4A8B-98F4-188E17DF6830}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7672,7 +7672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3747DD9D-A6B1-47CA-8EBB-B32AC449EDB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE5319B-ABD6-4F9C-B7C8-97CA31085452}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8929,17 +8929,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27E02908-678F-4BAC-80C8-49180F5B2415}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33D257BC-8085-4228-B01E-69F0BF69822B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63207844-B1F4-41ED-89EB-5ADCF2F265BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B891B5BE-00F9-42BA-8BD8-39631B95BE4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7DC65D6-20AC-4249-83E9-56070A72A2D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA1A9F8D-CE0B-4B7E-B324-BD10DE4FFCAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F325526-B3BE-4ED9-93C8-60ECE1925CD5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F13BB4D0-5FBD-471A-8521-2D0887FD5481}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8030D7AA-6DF3-4BEE-9D73-125229C6417B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14A55DDC-0B2B-45DB-BAB0-01ECA99FEC90}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7401837-23D4-4046-A33F-4F4F5F0953E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{421A144D-31FA-408C-87FC-BD1510F43342}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84B41006-BB1C-4B9A-A862-8865D434AFAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9461A582-D289-47E4-B0C6-2A7BA388F101}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{035DC9CA-EE5E-4F57-A569-B163AEF54E62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D43961D-1DDB-460A-B6B3-5FDECD8F376F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{471DBF5F-97D7-4E1C-9611-D72A07470271}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D3B0F58-3FDA-4028-BB25-98017ED61061}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F2D97FE-5B96-4BCF-88E8-330676B1D8F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ADC3768C-767E-443C-9ABF-8C834FF2496F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C4D5C622-331C-4B31-B0A3-653C6AEA039E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F782B084-679F-45C0-91B8-5CEC2E6860B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8952,7 +8952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2F935-C911-499A-81E4-B54A11CEEA49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B7AB65-D531-48D8-80B9-A46FA29F1747}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10209,17 +10209,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE23B01C-9D2E-4BE0-B73B-EAF523389088}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB59B5BE-B58D-44E6-911A-6538659859A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{811E6D53-11B9-4DE0-8F33-6505272E5D75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FB701DC-E1BF-4DCE-9049-1BCC2ADBEF2C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E2B6457-594C-499A-874E-C8B5A2EDD9E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E3BD526-92EC-4FAC-9D3E-F2E2C8DD743A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1678142-CA02-420B-96D9-646D7E272385}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96F19EB1-F0E6-41BB-BC5F-EBB2589FBFD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9F37AFA8-C47F-4897-9381-BCD38539415C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F0DCE991-5251-4BFE-92B1-8F62F179B3F8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6A018DD-1893-49CD-A1ED-273ECD809FF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3D24112-FC71-46CF-ABF4-58D2A8BCA1D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B25869CB-EF08-4D22-AB95-3CB19E7917F1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50BD47B5-57F5-4C39-8F3C-FB626D53E997}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AF36480-7BFA-40E5-873B-B66F6B417F2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93BBAF25-CD71-4845-BDFC-9AAB9EF3E30C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5360617-BEFF-487C-836E-29DE9DE3E762}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D7277E1-9584-45FE-B53C-6DAC5370C3B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE63AB1F-E8D3-4FA9-AFEA-6137D16E9C14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0DBD58A7-4288-4058-A340-BD24173A047E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BB4761DD-6A28-4803-A959-E296D379E013}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A12BE749-2658-4E07-BA3E-96A0EF06D628}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10232,7 +10232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F932CEC9-CAC3-4A17-9DFA-CA8A9FD68B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DE496E-C18D-4738-BAFA-DA21A5D1B4EE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11489,17 +11489,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75E7B9DD-D601-41E4-BF9F-2D67DEF883CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E0B03BB-2459-421B-A43E-5580EA5CF734}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB6A3985-D48A-43B6-888C-013C0A4BD2E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C31E925-6B28-4953-ABAF-89BEF5F3F5AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5ADF910E-105D-4FB9-A566-D85A94C8CD67}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE290323-3B2D-4E48-A186-598774E82920}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19B83C4C-4B9C-4540-AEE8-284FD93396FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A2D7CCD-9F51-404D-8700-A6E6A84A3F40}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6E86A182-F146-44BB-8A13-EA9D40C99DA6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8C69D48C-302B-47EA-916C-9DABA687C847}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{255EFEF9-8761-460A-AECF-4D04743051D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30E45B74-CBCA-440A-9E3D-CE0678EC9044}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B6849A9-4C2A-4DD0-B2C8-DB0462AAB804}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77960C00-5996-4DE2-9856-E2EE541D6654}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BE30C9F-0111-43CB-9256-CE76617EECF6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{261358B4-8174-491D-A0EB-EA8F94364189}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2A15B82-8909-4344-B471-0D8C0BA42D0F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DC3FCE4-8376-499D-8755-F709BFA08809}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4886FC7-8FAD-46AB-B879-85FF73EE6C92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{268EC33C-A405-4185-ADE2-98596B2DAF17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF0336A2-4D37-4A14-B269-9AEE554904C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FEC6144-C24B-499D-9824-2395105D2BD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11512,7 +11512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B926A1-FA8D-49F6-8091-0D9DD73349DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D955EE2-A313-4D62-A3A6-1B07FD6972E5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12769,17 +12769,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB429D15-FA8D-43C3-AF8D-B614228877EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C55C78EF-FF40-4847-841B-2EEC78C9E155}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1318387F-E6F2-4B54-BCF7-534E4D565467}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F15761B-61C9-46A4-908D-FE00CD32CC15}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E68054A-3B4C-4DF0-A9D9-7541E3E2793B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{067F34DD-575F-4EFE-AE77-0F62DFA92B36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA698DE1-638A-4296-BFBA-0DFDF8CC109B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEFD67F4-D0B2-4710-B14D-2B5C7A58236F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D2699304-21A1-431B-9CC5-7802FF5B6A6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{28C3104B-C5BB-4CC3-AFBB-8E81E1A28885}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE7D3EE7-71A0-419C-9C49-4AB1444EEC17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE30486A-D99F-4F51-B16C-63CC01E5C1E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C99FC129-297E-496C-AA4F-91CCA9BC9A90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0FFF869-E124-41FC-A5C7-C454FD9BEECE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{954915FB-7409-467F-8717-C9112F71091E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98E88C24-B89C-49B7-BFEB-19931AC5E7E3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B73665C5-8365-4311-A70D-F30D3A776C96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17047FDA-F9B8-47D6-8791-50EB20D97EC0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D94BA17-D36E-4436-A5DE-563E9B500D30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F31A3015-60D8-49B6-84E2-C6C7112FB067}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01B2DF34-D89C-4D05-AFAD-CF34A3EB16CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC7444DF-F5A4-4367-A86B-952FB1464B64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12792,7 +12792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A28E59-110F-475B-8E08-5F939F8380AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E28DB85-D0D9-497E-BDB9-49633E592B99}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14049,17 +14049,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71E7DCA9-9C34-4045-B450-6EBD33E71977}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8A528CC-28C4-43C4-957A-24E54B233C60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAE4E7A2-A09E-4D8C-953F-26024E53869D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FB4953ED-2B39-43B9-8779-16EBDBFBE8DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28D28E35-6E55-4D9F-99D7-21BE22BDEB5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{610A976B-6CFA-42C0-8B1A-C85361621CDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{345E886E-CD6C-4E36-9CC8-C826FB8DBF41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C9DB552-12AC-41AA-B034-3DD08E40B76B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C37C69AF-8FA8-41D5-849C-6C275FDA731D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{176A21D1-75FC-4A1F-9F35-61EBCC411E1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24E1BABF-F5C4-44AB-B9DD-2854C63D7C91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23C0A652-841B-4EE4-ADA9-65AC76D5E3A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DA4D48E-100C-4419-A137-23B3F6086270}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B506095-FA7D-4156-A090-1AA7359365AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99ED1EFF-EAD9-409B-8D97-4541EA945B56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51F972EC-98D7-4E28-B470-5CDF0A4A45DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7850A875-2702-44A6-A0FE-6DA8CD7CB8ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BC4E464-D398-4C2C-ACC0-7892E698D956}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EEE0209-8E4B-4E3F-81CB-F1FA4C69387D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7199BF32-0C9C-498E-BBA3-465E8CD5B3D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3EB761E9-3733-4BC0-9CA2-2B41EA4197B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E5B49E4-6F23-4076-B347-15E631CBC638}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14072,7 +14072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75188DC1-615C-4896-B0BD-5E66B63F24D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DAE1C5-6202-4DB7-B3D2-370FC2D1EB6E}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15326,17 +15326,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{365B6EAE-845C-4D9B-8A1A-45266EEBEDD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A27D4EA3-370C-4560-91BA-2875455797CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE641F8A-0262-4844-BF44-EAEAD65F74E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2237CDF6-1EA6-4E1E-8C8F-D7A515E8BEC6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCA603E8-A007-4328-BAF4-58C79245DE78}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9362BD17-2455-458F-AF18-E11F8DF3EBBE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BA70753-1434-4523-A790-98F464E2BC33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{757180FB-0572-4EE6-837C-375DE9C50BBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{404BB5C2-C9CB-4967-A6C6-350B57AE073A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BB9D79B8-6A25-4FEA-BD25-12DB24D5554E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B331C371-448E-4C28-9C5C-6C594823FEFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E065DE46-9165-4AAF-8DE6-5E662EBDA488}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0192BB9C-466D-44E9-A5D0-236AE8067865}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2A9FEEA-58BF-429B-BB10-27327440EBEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98AE950D-5C25-4BDF-99E3-F8A6C7604884}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CB1B300-78A7-4016-BD05-814655D25F5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BF6E13E-C2DE-4B36-8A7C-C45CEE649CD1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85F27C5B-01D1-4E00-AE21-2271AEE506C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBAB80E9-4AEA-43E0-8075-8EFFE1F745AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F0CAF0D5-2B2E-4B84-9E87-DE18A574EB73}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A7CD91C-FFD2-40F8-93D8-3F9BCF73A108}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5267CE8-46AD-44FA-A14E-A57ED46FAD65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15349,7 +15349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82490C1-FC7D-4BFD-874B-216BC1407043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E15D14-5F25-4550-8CE5-BF6E124EE483}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16603,17 +16603,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58E1DC68-2846-4BFE-9276-94BE7F89FC96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C87B8A78-C0CC-4DD8-BFCD-F44504266913}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{914082C7-B5FD-4D29-A96A-A500434AAC23}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A76842AF-5CBF-4BCF-9600-F1AD57B538B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AB83E49-CDE0-4080-8F32-B977F8735ED5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A6A049F-395F-44A2-BE84-7C691E764D06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5B26E71-0C61-4DDE-A1AC-5AA810A8A49D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C18C5719-C9BC-4766-AD39-054BC8F7687B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C860E63B-95B0-41D9-AAA2-86E32287786D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AB7CCF5D-E67A-4D77-8C5F-F92AA57F3C01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D5EB38E-14FE-4FFD-97DA-14DBDF3E7C4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A978B1C2-EA6D-475D-9700-D1870EC83A9D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60ED0319-C345-489B-AD0E-C702F3F1974C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5B7E6C3-3D27-4039-80DD-995F8F3EA5CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{370EFA21-BA0C-4D36-9F7F-72C0049DCAE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B21625A3-B83F-4035-A7BA-FC3C5171E2D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{085BEC01-3262-47E1-9C31-73FA12B06F5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8652980-6B0D-4CE6-A626-0454A82F2469}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B028B81-0D85-40AE-9019-4D3E3909C871}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2E0A9287-A227-462F-B8AC-F58993287D13}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F9BFB071-E2E9-43F7-A5D0-2DB8A93641B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDE08FCD-4F77-47B3-9EE8-6E3C70D2FB7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
